--- a/results/2022-01-22/results.xlsx
+++ b/results/2022-01-22/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardo/Projects/unb-faas/sequence_comparison/results/2022-01-22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D5E976-E7B8-C040-BF1F-32CA001AC59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC498503-111D-E042-A830-CB697F2D18B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14460" activeTab="4" xr2:uid="{B3D7B700-E99A-4546-A5E7-612BD7AC366B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14460" firstSheet="2" activeTab="7" xr2:uid="{B3D7B700-E99A-4546-A5E7-612BD7AC366B}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,206 @@
     <sheet name="Chart Costs - GCP" sheetId="15" r:id="rId12"/>
     <sheet name="Chart - Duration VMs" sheetId="17" r:id="rId13"/>
     <sheet name="Chart - Duration FaaS" sheetId="18" r:id="rId14"/>
+    <sheet name="Chart - Costs All" sheetId="22" r:id="rId15"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Chart - Duration FaaS'!$A$1:$C$11</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Chart - Duration VMs'!$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Chart - Duration VMs'!$A$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Chart - Duration VMs'!$A$4</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">'Chart - Duration VMs'!$A$11</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">'Chart - Duration VMs'!$A$12</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">'Chart - Duration VMs'!$A$13</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">'Chart - Duration VMs'!$A$14</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">'Chart - Duration VMs'!$A$15</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">'Chart - Duration VMs'!$A$16</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">'Chart - Duration VMs'!$A$17</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">'Chart - Duration VMs'!$A$2</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">'Chart - Duration VMs'!$A$3</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">'Chart - Duration VMs'!$A$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Chart - Duration VMs'!$A$5</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">'Chart - Duration VMs'!$A$5</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">'Chart - Duration VMs'!$A$6</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">'Chart - Duration VMs'!$A$7</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">'Chart - Duration VMs'!$A$8</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">'Chart - Duration VMs'!$A$9</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">'Chart - Duration VMs'!$B$10:$C$10</definedName>
+    <definedName name="_xlchart.v1.116" hidden="1">'Chart - Duration VMs'!$B$11:$C$11</definedName>
+    <definedName name="_xlchart.v1.117" hidden="1">'Chart - Duration VMs'!$B$12:$C$12</definedName>
+    <definedName name="_xlchart.v1.118" hidden="1">'Chart - Duration VMs'!$B$13:$C$13</definedName>
+    <definedName name="_xlchart.v1.119" hidden="1">'Chart - Duration VMs'!$B$14:$C$14</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Chart - Duration VMs'!$A$6</definedName>
+    <definedName name="_xlchart.v1.120" hidden="1">'Chart - Duration VMs'!$B$15:$C$15</definedName>
+    <definedName name="_xlchart.v1.121" hidden="1">'Chart - Duration VMs'!$B$16:$C$16</definedName>
+    <definedName name="_xlchart.v1.122" hidden="1">'Chart - Duration VMs'!$B$17:$C$17</definedName>
+    <definedName name="_xlchart.v1.123" hidden="1">'Chart - Duration VMs'!$B$1:$C$1</definedName>
+    <definedName name="_xlchart.v1.124" hidden="1">'Chart - Duration VMs'!$B$2:$C$2</definedName>
+    <definedName name="_xlchart.v1.125" hidden="1">'Chart - Duration VMs'!$B$3:$C$3</definedName>
+    <definedName name="_xlchart.v1.126" hidden="1">'Chart - Duration VMs'!$B$4:$C$4</definedName>
+    <definedName name="_xlchart.v1.127" hidden="1">'Chart - Duration VMs'!$B$5:$C$5</definedName>
+    <definedName name="_xlchart.v1.128" hidden="1">'Chart - Duration VMs'!$B$6:$C$6</definedName>
+    <definedName name="_xlchart.v1.129" hidden="1">'Chart - Duration VMs'!$B$7:$C$7</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Chart - Duration VMs'!$A$7</definedName>
+    <definedName name="_xlchart.v1.130" hidden="1">'Chart - Duration VMs'!$B$8:$C$8</definedName>
+    <definedName name="_xlchart.v1.131" hidden="1">'Chart - Duration VMs'!$B$9:$C$9</definedName>
+    <definedName name="_xlchart.v1.132" hidden="1">'Chart - Duration FaaS'!$A$10</definedName>
+    <definedName name="_xlchart.v1.133" hidden="1">'Chart - Duration FaaS'!$A$11</definedName>
+    <definedName name="_xlchart.v1.134" hidden="1">'Chart - Duration FaaS'!$A$2</definedName>
+    <definedName name="_xlchart.v1.135" hidden="1">'Chart - Duration FaaS'!$A$3</definedName>
+    <definedName name="_xlchart.v1.136" hidden="1">'Chart - Duration FaaS'!$A$4</definedName>
+    <definedName name="_xlchart.v1.137" hidden="1">'Chart - Duration FaaS'!$A$5</definedName>
+    <definedName name="_xlchart.v1.138" hidden="1">'Chart - Duration FaaS'!$A$6</definedName>
+    <definedName name="_xlchart.v1.139" hidden="1">'Chart - Duration FaaS'!$A$7</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Chart - Duration VMs'!$A$8</definedName>
+    <definedName name="_xlchart.v1.140" hidden="1">'Chart - Duration FaaS'!$A$8</definedName>
+    <definedName name="_xlchart.v1.141" hidden="1">'Chart - Duration FaaS'!$A$9</definedName>
+    <definedName name="_xlchart.v1.142" hidden="1">'Chart - Duration FaaS'!$B$10:$C$10</definedName>
+    <definedName name="_xlchart.v1.143" hidden="1">'Chart - Duration FaaS'!$B$11:$C$11</definedName>
+    <definedName name="_xlchart.v1.144" hidden="1">'Chart - Duration FaaS'!$B$1:$C$1</definedName>
+    <definedName name="_xlchart.v1.145" hidden="1">'Chart - Duration FaaS'!$B$2:$C$2</definedName>
+    <definedName name="_xlchart.v1.146" hidden="1">'Chart - Duration FaaS'!$B$3:$C$3</definedName>
+    <definedName name="_xlchart.v1.147" hidden="1">'Chart - Duration FaaS'!$B$4:$C$4</definedName>
+    <definedName name="_xlchart.v1.148" hidden="1">'Chart - Duration FaaS'!$B$5:$C$5</definedName>
+    <definedName name="_xlchart.v1.149" hidden="1">'Chart - Duration FaaS'!$B$6:$C$6</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Chart - Duration VMs'!$A$9</definedName>
+    <definedName name="_xlchart.v1.150" hidden="1">'Chart - Duration FaaS'!$B$7:$C$7</definedName>
+    <definedName name="_xlchart.v1.151" hidden="1">'Chart - Duration FaaS'!$B$8:$C$8</definedName>
+    <definedName name="_xlchart.v1.152" hidden="1">'Chart - Duration FaaS'!$B$9:$C$9</definedName>
+    <definedName name="_xlchart.v1.153" hidden="1">'Chart - Duration FaaS'!$A$10</definedName>
+    <definedName name="_xlchart.v1.154" hidden="1">'Chart - Duration FaaS'!$A$11</definedName>
+    <definedName name="_xlchart.v1.155" hidden="1">'Chart - Duration FaaS'!$A$2</definedName>
+    <definedName name="_xlchart.v1.156" hidden="1">'Chart - Duration FaaS'!$A$3</definedName>
+    <definedName name="_xlchart.v1.157" hidden="1">'Chart - Duration FaaS'!$A$4</definedName>
+    <definedName name="_xlchart.v1.158" hidden="1">'Chart - Duration FaaS'!$A$5</definedName>
+    <definedName name="_xlchart.v1.159" hidden="1">'Chart - Duration FaaS'!$A$6</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Chart - Duration VMs'!$B$10:$C$10</definedName>
+    <definedName name="_xlchart.v1.160" hidden="1">'Chart - Duration FaaS'!$A$7</definedName>
+    <definedName name="_xlchart.v1.161" hidden="1">'Chart - Duration FaaS'!$A$8</definedName>
+    <definedName name="_xlchart.v1.162" hidden="1">'Chart - Duration FaaS'!$A$9</definedName>
+    <definedName name="_xlchart.v1.163" hidden="1">'Chart - Duration FaaS'!$B$10:$C$10</definedName>
+    <definedName name="_xlchart.v1.164" hidden="1">'Chart - Duration FaaS'!$B$12:$C$12</definedName>
+    <definedName name="_xlchart.v1.165" hidden="1">'Chart - Duration FaaS'!$B$1:$C$1</definedName>
+    <definedName name="_xlchart.v1.166" hidden="1">'Chart - Duration FaaS'!$B$2:$C$2</definedName>
+    <definedName name="_xlchart.v1.167" hidden="1">'Chart - Duration FaaS'!$B$3:$C$3</definedName>
+    <definedName name="_xlchart.v1.168" hidden="1">'Chart - Duration FaaS'!$B$4:$C$4</definedName>
+    <definedName name="_xlchart.v1.169" hidden="1">'Chart - Duration FaaS'!$B$5:$C$5</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Chart - Duration VMs'!$B$11:$C$11</definedName>
+    <definedName name="_xlchart.v1.170" hidden="1">'Chart - Duration FaaS'!$B$6:$C$6</definedName>
+    <definedName name="_xlchart.v1.171" hidden="1">'Chart - Duration FaaS'!$B$7:$C$7</definedName>
+    <definedName name="_xlchart.v1.172" hidden="1">'Chart - Duration FaaS'!$B$8:$C$8</definedName>
+    <definedName name="_xlchart.v1.173" hidden="1">'Chart - Duration FaaS'!$B$9:$C$9</definedName>
+    <definedName name="_xlchart.v1.174" hidden="1">'Chart - Duration FaaS'!$A$10</definedName>
+    <definedName name="_xlchart.v1.175" hidden="1">'Chart - Duration FaaS'!$A$11</definedName>
+    <definedName name="_xlchart.v1.176" hidden="1">'Chart - Duration FaaS'!$A$2</definedName>
+    <definedName name="_xlchart.v1.177" hidden="1">'Chart - Duration FaaS'!$A$3</definedName>
+    <definedName name="_xlchart.v1.178" hidden="1">'Chart - Duration FaaS'!$A$4</definedName>
+    <definedName name="_xlchart.v1.179" hidden="1">'Chart - Duration FaaS'!$A$5</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Chart - Duration VMs'!$B$12:$C$12</definedName>
+    <definedName name="_xlchart.v1.180" hidden="1">'Chart - Duration FaaS'!$A$6</definedName>
+    <definedName name="_xlchart.v1.181" hidden="1">'Chart - Duration FaaS'!$A$7</definedName>
+    <definedName name="_xlchart.v1.182" hidden="1">'Chart - Duration FaaS'!$A$8</definedName>
+    <definedName name="_xlchart.v1.183" hidden="1">'Chart - Duration FaaS'!$A$9</definedName>
+    <definedName name="_xlchart.v1.184" hidden="1">'Chart - Duration FaaS'!$B$10:$C$10</definedName>
+    <definedName name="_xlchart.v1.185" hidden="1">'Chart - Duration FaaS'!$B$12:$C$12</definedName>
+    <definedName name="_xlchart.v1.186" hidden="1">'Chart - Duration FaaS'!$B$1:$C$1</definedName>
+    <definedName name="_xlchart.v1.187" hidden="1">'Chart - Duration FaaS'!$B$2:$C$2</definedName>
+    <definedName name="_xlchart.v1.188" hidden="1">'Chart - Duration FaaS'!$B$3:$C$3</definedName>
+    <definedName name="_xlchart.v1.189" hidden="1">'Chart - Duration FaaS'!$B$4:$C$4</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Chart - Duration VMs'!$B$13:$C$13</definedName>
+    <definedName name="_xlchart.v1.190" hidden="1">'Chart - Duration FaaS'!$B$5:$C$5</definedName>
+    <definedName name="_xlchart.v1.191" hidden="1">'Chart - Duration FaaS'!$B$6:$C$6</definedName>
+    <definedName name="_xlchart.v1.192" hidden="1">'Chart - Duration FaaS'!$B$7:$C$7</definedName>
+    <definedName name="_xlchart.v1.193" hidden="1">'Chart - Duration FaaS'!$B$8:$C$8</definedName>
+    <definedName name="_xlchart.v1.194" hidden="1">'Chart - Duration FaaS'!$B$9:$C$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Chart - Duration VMs'!$A$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Chart - Duration VMs'!$B$14:$C$14</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Chart - Duration VMs'!$B$15:$C$15</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Chart - Duration VMs'!$B$16:$C$16</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Chart - Duration VMs'!$B$17:$C$17</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Chart - Duration VMs'!$B$1:$C$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Chart - Duration VMs'!$B$2:$C$2</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Chart - Duration VMs'!$B$3:$C$3</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Chart - Duration VMs'!$B$4:$C$4</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Chart - Duration VMs'!$B$5:$C$5</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Chart - Duration VMs'!$B$6:$C$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Chart - Duration VMs'!$A$13</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Chart - Duration VMs'!$B$7:$C$7</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Chart - Duration VMs'!$B$8:$C$8</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Chart - Duration VMs'!$B$9:$C$9</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Chart - Duration VMs'!$A$10</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Chart - Duration VMs'!$A$11</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Chart - Duration VMs'!$A$12</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Chart - Duration VMs'!$A$13</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Chart - Duration VMs'!$A$14</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Chart - Duration VMs'!$A$15</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Chart - Duration VMs'!$A$16</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Chart - Duration VMs'!$A$14</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'Chart - Duration VMs'!$A$17</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'Chart - Duration VMs'!$A$2</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'Chart - Duration VMs'!$A$3</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'Chart - Duration VMs'!$A$4</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'Chart - Duration VMs'!$A$5</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'Chart - Duration VMs'!$A$6</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'Chart - Duration VMs'!$A$7</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'Chart - Duration VMs'!$A$8</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'Chart - Duration VMs'!$A$9</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'Chart - Duration VMs'!$B$10:$C$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Chart - Duration VMs'!$A$15</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'Chart - Duration VMs'!$B$11:$C$11</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'Chart - Duration VMs'!$B$12:$C$12</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'Chart - Duration VMs'!$B$13:$C$13</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'Chart - Duration VMs'!$B$14:$C$14</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'Chart - Duration VMs'!$B$15:$C$15</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'Chart - Duration VMs'!$B$16:$C$16</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">'Chart - Duration VMs'!$B$17:$C$17</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">'Chart - Duration VMs'!$B$1:$C$1</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">'Chart - Duration VMs'!$B$2:$C$2</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">'Chart - Duration VMs'!$B$3:$C$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Chart - Duration VMs'!$A$16</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">'Chart - Duration VMs'!$B$4:$C$4</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">'Chart - Duration VMs'!$B$5:$C$5</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">'Chart - Duration VMs'!$B$6:$C$6</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">'Chart - Duration VMs'!$B$7:$C$7</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">'Chart - Duration VMs'!$B$8:$C$8</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">'Chart - Duration VMs'!$B$9:$C$9</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">'Chart - Duration VMs'!$A$10</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">'Chart - Duration VMs'!$A$11</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">'Chart - Duration VMs'!$A$12</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">'Chart - Duration VMs'!$A$13</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Chart - Duration VMs'!$A$17</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">'Chart - Duration VMs'!$A$14</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">'Chart - Duration VMs'!$A$15</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">'Chart - Duration VMs'!$A$16</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">'Chart - Duration VMs'!$A$17</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">'Chart - Duration VMs'!$A$2</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">'Chart - Duration VMs'!$A$3</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">'Chart - Duration VMs'!$A$4</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">'Chart - Duration VMs'!$A$5</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">'Chart - Duration VMs'!$A$6</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">'Chart - Duration VMs'!$A$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Chart - Duration VMs'!$A$2</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">'Chart - Duration VMs'!$A$8</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">'Chart - Duration VMs'!$A$9</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">'Chart - Duration VMs'!$B$10:$C$10</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">'Chart - Duration VMs'!$B$11:$C$11</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">'Chart - Duration VMs'!$B$12:$C$12</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">'Chart - Duration VMs'!$B$13:$C$13</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">'Chart - Duration VMs'!$B$14:$C$14</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">'Chart - Duration VMs'!$B$15:$C$15</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">'Chart - Duration VMs'!$B$16:$C$16</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">'Chart - Duration VMs'!$B$17:$C$17</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Chart - Duration VMs'!$A$3</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">'Chart - Duration VMs'!$B$1:$C$1</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">'Chart - Duration VMs'!$B$2:$C$2</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">'Chart - Duration VMs'!$B$3:$C$3</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">'Chart - Duration VMs'!$B$4:$C$4</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">'Chart - Duration VMs'!$B$5:$C$5</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">'Chart - Duration VMs'!$B$6:$C$6</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">'Chart - Duration VMs'!$B$7:$C$7</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">'Chart - Duration VMs'!$B$8:$C$8</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">'Chart - Duration VMs'!$B$9:$C$9</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">'Chart - Duration VMs'!$A$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="443">
   <si>
     <t>service</t>
   </si>
@@ -1367,13 +1566,16 @@
     <t>Memory (GB)</t>
   </si>
   <si>
-    <t>gcp-e2-highcpu-8 (x86)</t>
-  </si>
-  <si>
-    <t>gcp-e2-standard-4 (x86)</t>
-  </si>
-  <si>
     <t>How arm was better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcp-e2-highcpu-8 </t>
+  </si>
+  <si>
+    <t>100 of concurrence</t>
+  </si>
+  <si>
+    <t>no-concurrency</t>
   </si>
 </sst>
 </file>
@@ -1381,12 +1583,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="171" formatCode="0.0000000"/>
-    <numFmt numFmtId="174" formatCode="0.0000000000"/>
-    <numFmt numFmtId="177" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1403,6 +1605,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1428,7 +1638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1457,12 +1667,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1471,10 +1686,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6E2FA3"/>
+      <color rgb="FF9F43E7"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FF5B0EB5"/>
       <color rgb="FFF59200"/>
       <color rgb="FF000000"/>
-      <color rgb="FFFF0000"/>
-      <color rgb="FF5B0EB5"/>
       <color rgb="FF9E0C08"/>
     </mruColors>
   </colors>
@@ -1524,29 +1741,37 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Duration - AWS'!$A$2</c:f>
+              <c:f>'Chart Duration - AWS'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-c5a.2xlarge (x86)</c:v>
+                  <c:v>aws-lambda-1.5GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1577,27 +1802,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Chart Duration - AWS'!$B$2:$G$2</c:f>
+              <c:f>'Chart Duration - AWS'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.5555555555555556E-4</c:v>
+                  <c:v>8.1018518518518516E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1759259259259258E-3</c:v>
+                  <c:v>8.6805555555555551E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1203703703703706E-3</c:v>
+                  <c:v>9.0277777777777784E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7013888888888887E-3</c:v>
+                  <c:v>9.0277777777777784E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2638888888888883E-3</c:v>
+                  <c:v>9.0277777777777784E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0972222222222223E-2</c:v>
+                  <c:v>9.0277777777777784E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1614,29 +1839,37 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Duration - AWS'!$A$3</c:f>
+              <c:f>'Chart Duration - AWS'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-c5a.4xlarge (x86)</c:v>
+                  <c:v>aws-lambda-3.0GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="sng">
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1667,27 +1900,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Chart Duration - AWS'!$B$3:$G$3</c:f>
+              <c:f>'Chart Duration - AWS'!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0925925925925921E-4</c:v>
+                  <c:v>7.175925925925927E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3310185185185185E-3</c:v>
+                  <c:v>7.6388888888888893E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4189814814814816E-3</c:v>
+                  <c:v>7.6388888888888893E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4027777777777784E-3</c:v>
+                  <c:v>7.7546296296296304E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6643518518518518E-3</c:v>
+                  <c:v>7.6388888888888893E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6018518518518518E-3</c:v>
+                  <c:v>7.7546296296296304E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1704,27 +1937,37 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Duration - AWS'!$A$4</c:f>
+              <c:f>'Chart Duration - AWS'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-c5a.8xlarge (x86)</c:v>
+                  <c:v>aws-lambda-1.0GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="F59200"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1755,27 +1998,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Chart Duration - AWS'!$B$4:$G$4</c:f>
+              <c:f>'Chart Duration - AWS'!$B$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.2083333333333333E-4</c:v>
+                  <c:v>1.261574074074074E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9444444444444447E-4</c:v>
+                  <c:v>1.2731481481481483E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3888888888888889E-3</c:v>
+                  <c:v>1.2962962962962963E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7245370370370372E-3</c:v>
+                  <c:v>1.3194444444444443E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1643518518518518E-3</c:v>
+                  <c:v>1.3310185185185185E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0555555555555557E-3</c:v>
+                  <c:v>1.3310185185185185E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1792,29 +2035,37 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Duration - AWS'!$A$5</c:f>
+              <c:f>'Chart Duration - AWS'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-c6g.2xlarge (arm)</c:v>
+                  <c:v>aws-lambda-2.5GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1845,27 +2096,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Chart Duration - AWS'!$B$5:$G$5</c:f>
+              <c:f>'Chart Duration - AWS'!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.2500000000000001E-4</c:v>
+                  <c:v>7.0601851851851847E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0486111111111113E-3</c:v>
+                  <c:v>7.407407407407407E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1018518518518522E-3</c:v>
+                  <c:v>7.407407407407407E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9421296296296288E-3</c:v>
+                  <c:v>7.5231481481481471E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8981481481481489E-3</c:v>
+                  <c:v>7.5231481481481471E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0092592592592594E-3</c:v>
+                  <c:v>7.7546296296296304E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,29 +2133,38 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Duration - AWS'!$A$6</c:f>
+              <c:f>'Chart Duration - AWS'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-c6g.4xlarge (arm)</c:v>
+                  <c:v>aws-lambda-2.0GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1935,27 +2195,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Chart Duration - AWS'!$B$6:$G$6</c:f>
+              <c:f>'Chart Duration - AWS'!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.2500000000000001E-4</c:v>
+                  <c:v>7.175925925925927E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.25E-3</c:v>
+                  <c:v>7.407407407407407E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8634259259259261E-3</c:v>
+                  <c:v>7.407407407407407E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>7.7546296296296304E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1134259259259257E-3</c:v>
+                  <c:v>7.5231481481481471E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3287037037037035E-3</c:v>
+                  <c:v>7.7546296296296304E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,17 +2242,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="F59200"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="F59200"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2064,17 +2334,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-lambda-1.0GB</c:v>
+                  <c:v>aws-c5a.8xlarge (x86)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
+                <a:srgbClr val="F59200"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -2082,7 +2350,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="F59200"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2118,22 +2396,22 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.261574074074074E-3</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2731481481481483E-3</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2962962962962963E-3</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3194444444444443E-3</c:v>
+                  <c:v>1.7245370370370372E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3310185185185185E-3</c:v>
+                  <c:v>2.1643518518518518E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3310185185185185E-3</c:v>
+                  <c:v>3.0555555555555557E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,24 +2432,35 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-lambda-2.0GB</c:v>
+                  <c:v>aws-c6g.4xlarge (arm)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="F59200">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F59200"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2207,22 +2496,22 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.175925925925927E-4</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.407407407407407E-4</c:v>
+                  <c:v>1.25E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.407407407407407E-4</c:v>
+                  <c:v>1.8634259259259261E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7546296296296304E-4</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5231481481481471E-4</c:v>
+                  <c:v>3.1134259259259257E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7546296296296304E-4</c:v>
+                  <c:v>4.3287037037037035E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2243,17 +2532,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-lambda-2.5GB</c:v>
+                  <c:v>aws-c5a.4xlarge (x86)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="70000"/>
-                </a:schemeClr>
+                <a:srgbClr val="F59200"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -2261,7 +2548,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F59200"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2297,22 +2594,22 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.0601851851851847E-4</c:v>
+                  <c:v>5.0925925925925921E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.407407407407407E-4</c:v>
+                  <c:v>1.3310185185185185E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.407407407407407E-4</c:v>
+                  <c:v>2.4189814814814816E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5231481481481471E-4</c:v>
+                  <c:v>3.4027777777777784E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5231481481481471E-4</c:v>
+                  <c:v>4.6643518518518518E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7546296296296304E-4</c:v>
+                  <c:v>5.6018518518518518E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,23 +2630,33 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-lambda-3.0GB</c:v>
+                  <c:v>aws-c6g.2xlarge (arm)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="F59200"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F59200"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2385,22 +2692,22 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.175925925925927E-4</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6388888888888893E-4</c:v>
+                  <c:v>2.0486111111111113E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6388888888888893E-4</c:v>
+                  <c:v>3.1018518518518522E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7546296296296304E-4</c:v>
+                  <c:v>4.9421296296296288E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6388888888888893E-4</c:v>
+                  <c:v>6.8981481481481489E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7546296296296304E-4</c:v>
+                  <c:v>8.0092592592592594E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2421,17 +2728,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-lambda-1.5GB</c:v>
+                  <c:v>aws-c5a.2xlarge (x86)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="20000"/>
-                </a:schemeClr>
+                <a:srgbClr val="F59200"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -2439,7 +2744,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F59200"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2475,22 +2790,22 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.1018518518518516E-4</c:v>
+                  <c:v>5.5555555555555556E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6805555555555551E-4</c:v>
+                  <c:v>2.1759259259259258E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0277777777777784E-4</c:v>
+                  <c:v>4.1203703703703706E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0277777777777784E-4</c:v>
+                  <c:v>6.7013888888888887E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0277777777777784E-4</c:v>
+                  <c:v>8.2638888888888883E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0277777777777784E-4</c:v>
+                  <c:v>1.0972222222222223E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2511,17 +2826,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-t3a.xlarge  (x86)</c:v>
+                  <c:v>aws-t4g.xlarge (arm)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="30000"/>
-                </a:srgbClr>
+                <a:srgbClr val="F59200"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
               <a:round/>
@@ -2529,7 +2842,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F59200"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2565,22 +2888,22 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.8703703703703705E-4</c:v>
+                  <c:v>6.3657407407407402E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9259259259259256E-3</c:v>
+                  <c:v>3.1481481481481482E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2106481481481482E-2</c:v>
+                  <c:v>6.3657407407407404E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8124999999999999E-2</c:v>
+                  <c:v>9.525462962962963E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3622685185185188E-2</c:v>
+                  <c:v>1.2638888888888889E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9942129629629628E-2</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2601,25 +2924,33 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-t4g.xlarge (arm)</c:v>
+                  <c:v>aws-t3a.xlarge  (x86)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="30000"/>
-                </a:srgbClr>
+                <a:srgbClr val="F59200"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F59200"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2655,22 +2986,22 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.3657407407407402E-4</c:v>
+                  <c:v>7.8703703703703705E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1481481481481482E-3</c:v>
+                  <c:v>5.9259259259259256E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3657407407407404E-3</c:v>
+                  <c:v>1.2106481481481482E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.525462962962963E-3</c:v>
+                  <c:v>1.8124999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2638888888888889E-2</c:v>
+                  <c:v>2.3622685185185188E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>2.9942129629629628E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2804,6 +3135,8 @@
         <c:scaling>
           <c:logBase val="100"/>
           <c:orientation val="minMax"/>
+          <c:max val="7.0000000000000007E-2"/>
+          <c:min val="5.0000000000000012E-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3045,8 +3378,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="25"/>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -3118,21 +3451,30 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
-                  <a:alpha val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3210,19 +3552,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:alpha val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3294,28 +3646,30 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>azure-standard-d16s-v4 (x86)</c:v>
+                  <c:v>azure-standard-d16s-v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:alpha val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -3392,31 +3746,29 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>azure-standard-d32s-v4 ((x86)</c:v>
+                  <c:v>azure-standard-d32s-v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3605,6 +3957,7 @@
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="3.5000000000000003E-2"/>
+          <c:min val="3.0000000000000008E-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3816,25 +4169,33 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-e2-highcpu-16 (x86)</c:v>
+                  <c:v>gcp-e2-highcpu-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="60223"/>
-                </a:srgbClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3906,23 +4267,33 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-e2-highcpu-32 (x86)</c:v>
+                  <c:v>gcp-e2-highcpu-32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3994,25 +4365,33 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-e2-highcpu-8 (x86)</c:v>
+                  <c:v>gcp-e2-highcpu-8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="40000"/>
-                </a:srgbClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -4084,25 +4463,33 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-e2-standard-4 (x86)</c:v>
+                  <c:v>gcp-e2-standard-4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="19844"/>
-                </a:srgbClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -4180,18 +4567,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -4269,18 +4664,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="70000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -4358,7 +4761,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4367,7 +4770,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -4445,18 +4858,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -4673,7 +5094,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="3.5000000000000003E-2"/>
+          <c:max val="3.9000000000000007E-2"/>
+          <c:min val="4.0000000000000013E-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4896,19 +5318,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="25000"/>
-                </a:srgbClr>
+                <a:srgbClr val="F59200"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F59200"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -4986,19 +5416,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
+                <a:srgbClr val="F59200"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F59200"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5076,19 +5514,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F59200"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5166,17 +5612,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="F59200"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="F59200"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5254,19 +5710,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F59200"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5344,19 +5808,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
+                <a:srgbClr val="F59200"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F59200"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5434,19 +5906,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="75000"/>
-                </a:srgbClr>
+                <a:srgbClr val="F59200"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F59200"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5524,17 +6004,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="F59200"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="F59200"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5612,18 +6102,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="20000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5701,18 +6199,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5790,18 +6296,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5879,18 +6393,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="80000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5968,7 +6490,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -5977,7 +6499,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -6161,6 +6693,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="1.7000000000000006E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6395,16 +6928,14 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="25"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -6470,19 +7001,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -6560,19 +7099,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -6650,19 +7197,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -6740,17 +7295,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -7211,25 +7776,33 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-e2-standard-4  (x86)</c:v>
+                  <c:v>gcp-e2-standard-4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="25000"/>
-                </a:srgbClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -7301,25 +7874,33 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-e2-highcpu-8  (x86)</c:v>
+                  <c:v>gcp-e2-highcpu-8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -7391,25 +7972,33 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-e2-highcpu-16 (x86)</c:v>
+                  <c:v>gcp-e2-highcpu-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="75000"/>
-                </a:srgbClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -7481,23 +8070,33 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-e2-highcpu-32 (x86)</c:v>
+                  <c:v>gcp-e2-highcpu-32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -7575,18 +8174,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -7664,18 +8271,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -7753,18 +8368,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -7842,7 +8465,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -7851,7 +8474,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -8040,6 +8673,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="8.0000000000000026E-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8272,8 +8906,9 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -8284,81 +8919,54 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-t3a.xlarge (x86)</c:v>
+                  <c:v>azure-standard-d32s-v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="25000"/>
-                </a:srgbClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$2:$G$2</c:f>
+              <c:f>'Chart - Duration VMs'!$B$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.8703703703703705E-4</c:v>
+                  <c:v>3.1250000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9259259259259256E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2106481481481482E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8124999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3622685185185188E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9942129629629628E-2</c:v>
+                  <c:v>2.2916666666666667E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -8374,81 +8982,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-c5a.2xlarge (x86)</c:v>
+                  <c:v>aws-c6g.8xlarge (arm)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="sysDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$3:$G$3</c:f>
+              <c:f>'Chart - Duration VMs'!$B$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.5555555555555556E-4</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1759259259259258E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1203703703703706E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.7013888888888887E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.2638888888888883E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0972222222222223E-2</c:v>
+                  <c:v>2.488425925925926E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -8464,81 +9046,54 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-c5a.4xlarge (x86)</c:v>
+                  <c:v>gcp-e2-highcpu-32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="75000"/>
-                </a:srgbClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$4:$G$4</c:f>
+              <c:f>'Chart - Duration VMs'!$B$4:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0925925925925921E-4</c:v>
+                  <c:v>4.0509259259259258E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3310185185185185E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4189814814814816E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4027777777777784E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6643518518518518E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.6018518518518518E-3</c:v>
+                  <c:v>2.9166666666666668E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -8560,73 +9115,48 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="F59200"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="F59200"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$5:$G$5</c:f>
+              <c:f>'Chart - Duration VMs'!$B$5:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9444444444444447E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3888888888888889E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7245370370370372E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1643518518518518E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>3.0555555555555557E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -8642,81 +9172,56 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-t4g.xlarge (arm)</c:v>
+                  <c:v>azure-standard-d16s-v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="25000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$6:$G$6</c:f>
+              <c:f>'Chart - Duration VMs'!$B$6:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.3657407407407402E-4</c:v>
+                  <c:v>3.3564814814814812E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1481481481481482E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3657407407407404E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.525462962962963E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2638888888888889E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>4.2708333333333339E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -8732,81 +9237,60 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-c6g.2xlarge (arm)</c:v>
+                  <c:v>aws-c6g.4xlarge (arm)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="dash"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$7:$G$7</c:f>
+              <c:f>'Chart - Duration VMs'!$B$7:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0486111111111113E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1018518518518522E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9421296296296288E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.8981481481481489E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0092592592592594E-3</c:v>
+                  <c:v>4.3287037037037035E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -8822,79 +9306,59 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-c6g.4xlarge (arm)</c:v>
+                  <c:v>gcp-e2-highcpu-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:srgbClr val="00B050"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="F59200"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$8:$G$8</c:f>
+              <c:f>'Chart - Duration VMs'!$B$8:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.2500000000000001E-4</c:v>
+                  <c:v>4.1666666666666669E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8634259259259261E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1134259259259257E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3287037037037035E-3</c:v>
+                  <c:v>5.4745370370370373E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -8910,79 +9374,61 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-c6g.8xlarge (arm)</c:v>
+                  <c:v>aws-c5a.4xlarge (x86)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:srgbClr val="F59200"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="F59200"/>
+                <a:srgbClr val="F59200">
+                  <a:alpha val="75000"/>
+                </a:srgbClr>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
+              <a:prstDash val="dash"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$9:$G$9</c:f>
+              <c:f>'Chart - Duration VMs'!$B$9:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.2500000000000001E-4</c:v>
+                  <c:v>5.0925925925925921E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2500000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8750000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.488425925925926E-3</c:v>
+                  <c:v>5.6018518518518518E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -8998,81 +9444,64 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>azure-standard-d4s-v3 (x86)</c:v>
+                  <c:v>aws-c6g.2xlarge (arm)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:pattFill prst="pct90">
+              <a:fgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
+                <a:srgbClr val="F59200">
+                  <a:alpha val="75000"/>
+                </a:srgbClr>
               </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
+              <a:prstDash val="sysDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$10:$G$10</c:f>
+              <c:f>'Chart - Duration VMs'!$B$10:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.8611111111111104E-4</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9652777777777777E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9652777777777778E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4965277777777779E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0069444444444442E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5069444444444446E-2</c:v>
+                  <c:v>8.0092592592592594E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -9088,81 +9517,57 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>azure-standard-d8s-v3 (x86)</c:v>
+                  <c:v>gcp-e2-highcpu-8 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:pattFill prst="pct90">
+              <a:fgClr>
+                <a:srgbClr val="00B050"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
               <a:prstDash val="dash"/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$11:$G$11</c:f>
+              <c:f>'Chart - Duration VMs'!$B$11:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0925925925925921E-4</c:v>
+                  <c:v>4.1666666666666669E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6041666666666665E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3009259259259251E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.8472222222222224E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0474537037037037E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3078703703703703E-2</c:v>
+                  <c:v>1.0543981481481481E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -9178,80 +9583,57 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>azure-standard-d16s-v4 (x86)</c:v>
+                  <c:v>aws-c5a.2xlarge (x86)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:pattFill prst="pct90">
+              <a:fgClr>
+                <a:srgbClr val="F59200"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="dash"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$12:$G$12</c:f>
+              <c:f>'Chart - Duration VMs'!$B$12:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.3564814814814812E-4</c:v>
+                  <c:v>5.5555555555555556E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8379629629629642E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6435185185185183E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4652777777777776E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2986111111111111E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.2708333333333339E-3</c:v>
+                  <c:v>1.0972222222222223E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -9267,79 +9649,61 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>azure-standard-d32s-v4 (x86)</c:v>
+                  <c:v>azure-standard-d8s-v3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:pattFill prst="pct90">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="dash"/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$13:$G$13</c:f>
+              <c:f>'Chart - Duration VMs'!$B$13:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.1250000000000001E-4</c:v>
+                  <c:v>5.0925925925925921E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8611111111111104E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.8379629629629642E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2268518518518518E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6435185185185183E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2916666666666667E-3</c:v>
+                  <c:v>1.3078703703703703E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -9355,81 +9719,65 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-e2-standard-4  (x86)</c:v>
+                  <c:v>aws-t4g.xlarge (arm)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:pattFill prst="dashVert">
+              <a:fgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="25000"/>
-                </a:srgbClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
+              <a:prstDash val="sysDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$14:$G$14</c:f>
+              <c:f>'Chart - Duration VMs'!$B$14:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.1666666666666669E-4</c:v>
+                  <c:v>6.3657407407407402E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2476851851851851E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4606481481481494E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.269675925925926E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7013888888888887E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1168981481481483E-2</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -9445,81 +9793,59 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-e2-highcpu-8  (x86)</c:v>
+                  <c:v>gcp-e2-standard-4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:pattFill prst="dashVert">
+              <a:fgClr>
+                <a:srgbClr val="00B050"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$15:$G$15</c:f>
+              <c:f>'Chart - Duration VMs'!$B$15:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>4.1666666666666669E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0717592592592593E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1666666666666666E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.168981481481481E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4722222222222213E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0543981481481481E-2</c:v>
+                  <c:v>2.1168981481481483E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -9535,81 +9861,59 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-e2-highcpu-16 (x86)</c:v>
+                  <c:v>azure-standard-d4s-v3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:pattFill prst="dashVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="75000"/>
-                </a:srgbClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$16:$G$16</c:f>
+              <c:f>'Chart - Duration VMs'!$B$16:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.1666666666666669E-4</c:v>
+                  <c:v>4.8611111111111104E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2731481481481483E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1180555555555553E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1597222222222222E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.1898148148148146E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4745370370370373E-3</c:v>
+                  <c:v>2.5069444444444446E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -9625,79 +9929,59 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-e2-highcpu-32 (x86)</c:v>
+                  <c:v>aws-t3a.xlarge (x86)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:pattFill prst="dashVert">
+              <a:fgClr>
+                <a:srgbClr val="F59200"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="F59200"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration VMs'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration VMs'!$B$17:$G$17</c:f>
+              <c:f>'Chart - Duration VMs'!$B$17:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0509259259259258E-4</c:v>
+                  <c:v>7.8703703703703705E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2500000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2384259259259258E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5740740740740741E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0833333333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9166666666666668E-3</c:v>
+                  <c:v>2.9942129629629628E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-278D-5A48-A03B-8AFCC5CADEE6}"/>
@@ -9712,14 +9996,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="582237999"/>
         <c:axId val="573184463"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="582237999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9817,13 +10101,17 @@
         </c:txPr>
         <c:crossAx val="573184463"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="20"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="573184463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.2000000000000008E-2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9850,7 +10138,7 @@
                   <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Total alignment duration (h:m:s)</a:t>
+                  <a:t>Total alignment duration (min:sec)</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -9889,7 +10177,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="hh:mm:ss" sourceLinked="1"/>
+        <c:numFmt formatCode="mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9897,10 +10185,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -9928,7 +10213,9 @@
         </c:txPr>
         <c:crossAx val="582237999"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10030,8 +10317,9 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -10042,80 +10330,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-lambda-1.0GB</c:v>
+                  <c:v>aws-lambda-2.0GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="F59200"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="20000"/>
-                </a:srgbClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$2:$G$2</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.261574074074074E-3</c:v>
+                  <c:v>7.175925925925927E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2731481481481483E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2962962962962963E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3194444444444443E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3310185185185185E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3310185185185185E-3</c:v>
+                  <c:v>7.7546296296296304E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-45C3-0F41-B971-CCF6810B2B3F}"/>
@@ -10131,80 +10394,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-lambda-1.5GB</c:v>
+                  <c:v>aws-lambda-2.5GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="F59200"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="40000"/>
-                </a:srgbClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$3:$G$3</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8.1018518518518516E-4</c:v>
+                  <c:v>7.0601851851851847E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6805555555555551E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0277777777777784E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.0277777777777784E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.0277777777777784E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.0277777777777784E-4</c:v>
+                  <c:v>7.7546296296296304E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-45C3-0F41-B971-CCF6810B2B3F}"/>
@@ -10220,80 +10458,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-lambda-2.0GB</c:v>
+                  <c:v>aws-lambda-3.0GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="F59200"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="60000"/>
-                </a:srgbClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$4:$G$4</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$4:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>7.175925925925927E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.407407407407407E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.407407407407407E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.7546296296296304E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.5231481481481471E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>7.7546296296296304E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-45C3-0F41-B971-CCF6810B2B3F}"/>
@@ -10309,80 +10522,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-lambda-2.5GB</c:v>
+                  <c:v>aws-lambda-1.5GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="F59200"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="F59200">
-                  <a:alpha val="80000"/>
-                </a:srgbClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$5:$G$5</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$5:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.0601851851851847E-4</c:v>
+                  <c:v>8.1018518518518516E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.407407407407407E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.407407407407407E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.5231481481481471E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.5231481481481471E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.7546296296296304E-4</c:v>
+                  <c:v>9.0277777777777784E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-45C3-0F41-B971-CCF6810B2B3F}"/>
@@ -10398,78 +10586,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aws-lambda-3.0GB</c:v>
+                  <c:v>gcp-gcf-2.0GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="F59200"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$6:$G$6</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$6:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.175925925925927E-4</c:v>
+                  <c:v>6.3657407407407402E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6388888888888893E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.6388888888888893E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.7546296296296304E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.6388888888888893E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.7546296296296304E-4</c:v>
+                  <c:v>9.1435185185185185E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-45C3-0F41-B971-CCF6810B2B3F}"/>
@@ -10485,73 +10650,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>azure-function</c:v>
+                  <c:v>gcp-gcf-4.0GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="25"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$7:$G$7</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$7:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.8611111111111104E-4</c:v>
+                  <c:v>6.5972222222222213E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9537037037037042E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-45C3-0F41-B971-CCF6810B2B3F}"/>
@@ -10567,80 +10714,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-gcf-0.5GB</c:v>
+                  <c:v>gcp-gcf-1.0GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="25000"/>
-                </a:srgbClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$8:$G$8</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$8:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.423611111111111E-3</c:v>
+                  <c:v>6.5972222222222213E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8981481481481482E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1412037037037038E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2106481481481478E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5462962962962961E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9560185185185184E-3</c:v>
+                  <c:v>1.2847222222222223E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-45C3-0F41-B971-CCF6810B2B3F}"/>
@@ -10656,80 +10778,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-gcf-1.0GB</c:v>
+                  <c:v>aws-lambda-1.0GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="F59200"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$9:$G$9</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$9:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.5972222222222213E-4</c:v>
+                  <c:v>1.261574074074074E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3750000000000007E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2731481481481483E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2268518518518518E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1805555555555556E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2847222222222223E-3</c:v>
+                  <c:v>1.3310185185185185E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-45C3-0F41-B971-CCF6810B2B3F}"/>
@@ -10745,80 +10842,56 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-gcf-2.0GB</c:v>
+                  <c:v>gcp-gcf-0.5GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="75000"/>
-                </a:srgbClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$10:$G$10</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$10:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.3657407407407402E-4</c:v>
+                  <c:v>1.423611111111111E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1435185185185185E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.8379629629629642E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.7962962962962962E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.8379629629629642E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.1435185185185185E-4</c:v>
+                  <c:v>1.9560185185185184E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-45C3-0F41-B971-CCF6810B2B3F}"/>
@@ -10834,78 +10907,50 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gcp-gcf-4.0GB</c:v>
+                  <c:v>azure-function</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$1:$G$1</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Chart - Duration FaaS'!$B$11:$G$11</c:f>
+              <c:f>'Chart - Duration FaaS'!$B$11:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.5972222222222213E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.7962962962962962E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.564814814814815E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.8379629629629642E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.9120370370370362E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.9537037037037042E-4</c:v>
+                  <c:v>4.8611111111111104E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-45C3-0F41-B971-CCF6810B2B3F}"/>
@@ -10920,14 +10965,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="534704463"/>
         <c:axId val="574496655"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="534704463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11039,30 +11084,20 @@
         </c:txPr>
         <c:crossAx val="574496655"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="20"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="574496655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.0000000000000006E-2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -11084,7 +11119,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
-                  <a:t>Total alignment duration (h:m:s) </a:t>
+                  <a:t>Total alignment duration (min:sec) </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11118,7 +11153,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="hh:mm:ss" sourceLinked="1"/>
+        <c:numFmt formatCode="mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11157,7 +11192,692 @@
         </c:txPr>
         <c:crossAx val="534704463"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart - Costs All'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no-concurrency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Chart - Costs All'!$A$2:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>aws-t4g.xlarge (arm)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gcp-e2-highcpu-8  (x86)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>aws-c6g.2xlarge (arm)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gcp-e2-highcpu-16 (x86)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gcp-e2-highcpu-32 (x86)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>aws-c6g.4xlarge (arm)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>aws-c6g.8xlarge (arm)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>gcp-e2-standard-4  (x86)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>aws-c5a.2xlarge (x86)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>aws-c5a.4xlarge (x86)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>gcp-gcf-0.5GB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>aws-c5a.8xlarge (x86)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>azure-standard-d16s-v4 (x86)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>azure-standard-d32s-v4 (x86)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>aws-t3a.xlarge (x86)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>gcp-gcf-1.0GB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>azure-standard-d4s-v3 (x86)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>azure-standard-d8s-v3 (x86)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>aws-lambda-1.0GB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>aws-lambda-1.5GB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>gcp-gcf-2.0GB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>aws-lambda-2.0GB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>aws-lambda-2.5GB</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>gcp-gcf-4.0GB</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>aws-lambda-3.0GB</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>azure-function</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart - Costs All'!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.0533333333333328E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0800000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6805555555555559E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1600000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6320000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1066666666666665E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5288888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1381500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.54E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.217777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3439999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8408888888888885E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4089999999999994E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7299999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.7199999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8204999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7501999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5953999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0648000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0001999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3063999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0688999999999986E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3353437499999999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CDE-7F45-A455-1F1A23AC4818}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart - Costs All'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100 of concurrence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="6E2FA3"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Chart - Costs All'!$A$2:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>aws-t4g.xlarge (arm)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gcp-e2-highcpu-8  (x86)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>aws-c6g.2xlarge (arm)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gcp-e2-highcpu-16 (x86)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gcp-e2-highcpu-32 (x86)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>aws-c6g.4xlarge (arm)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>aws-c6g.8xlarge (arm)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>gcp-e2-standard-4  (x86)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>aws-c5a.2xlarge (x86)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>aws-c5a.4xlarge (x86)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>gcp-gcf-0.5GB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>aws-c5a.8xlarge (x86)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>azure-standard-d16s-v4 (x86)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>azure-standard-d32s-v4 (x86)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>aws-t3a.xlarge (x86)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>gcp-gcf-1.0GB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>azure-standard-d4s-v3 (x86)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>azure-standard-d8s-v3 (x86)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>aws-lambda-1.0GB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>aws-lambda-1.5GB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>gcp-gcf-2.0GB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>aws-lambda-2.0GB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>aws-lambda-2.5GB</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>gcp-gcf-4.0GB</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>aws-lambda-3.0GB</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>azure-function</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart - Costs All'!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>5.0399999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0611111111111107E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2284444444444446E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2555555555555557E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6515555555555555E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4977777777777773E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.112777777777779E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1106666666666674E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2817777777777782E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3290000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0346666666666672E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.1840000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.8559999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1080791111111111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12709000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14079000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17703999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17751999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.18564</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19982</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30002000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36543999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.39354999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9CDE-7F45-A455-1F1A23AC4818}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1328029487"/>
+        <c:axId val="1333273007"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1328029487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1333273007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1333273007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Total costs ($) with competing alignments</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328029487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11523,6 +12243,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15690,20 +16450,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>859367</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>740834</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15735,16 +17000,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15858,16 +17123,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15899,16 +17164,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2527300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15941,15 +17206,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15961,7 +17226,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noChangeAspect="1"/>
+          <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15983,16 +17248,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16004,7 +17269,50 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noChangeAspect="1"/>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F053DE93-72D7-2446-8751-3566FCB79D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16321,7 +17629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7F5F33-3FB2-B941-AAB6-D38231E630E8}">
   <dimension ref="A1:AK53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AH1" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -19742,8 +21050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CACEAFC-0803-244C-9CE4-9A0C38A6DBE6}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20081,8 +21389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1522BD-3861-4844-B383-43EE107C3BBE}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20220,11 +21528,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1723AE5-E0FB-DB47-8742-F8D10C10C3FE}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1">
@@ -20248,7 +21559,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>283</v>
       </c>
       <c r="B2">
         <v>1.4E-3</v>
@@ -20271,7 +21582,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="B3">
         <v>2E-3</v>
@@ -20294,7 +21605,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>244</v>
       </c>
       <c r="B4">
         <v>4.0000000000000001E-3</v>
@@ -20317,7 +21628,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="B5">
         <v>7.6805555555555559E-3</v>
@@ -20438,108 +21749,63 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1059E-B5C9-3743-88F8-202ACA74FC7F}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1">
-        <v>20</v>
-      </c>
-      <c r="D1">
-        <v>40</v>
-      </c>
-      <c r="E1">
-        <v>60</v>
-      </c>
-      <c r="F1">
-        <v>80</v>
-      </c>
-      <c r="G1">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B2" s="12">
-        <v>7.8703703703703705E-4</v>
-      </c>
-      <c r="C2" s="12">
-        <v>5.9259259259259256E-3</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1.2106481481481482E-2</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1.8124999999999999E-2</v>
-      </c>
-      <c r="F2" s="12">
-        <v>2.3622685185185188E-2</v>
-      </c>
-      <c r="G2" s="12">
-        <v>2.9942129629629628E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="B2" s="19">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="C2" s="19">
+        <v>2.2916666666666667E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B3" s="12">
-        <v>5.5555555555555556E-4</v>
+        <v>6.2500000000000001E-4</v>
       </c>
       <c r="C3" s="12">
-        <v>2.1759259259259258E-3</v>
-      </c>
-      <c r="D3" s="12">
-        <v>4.1203703703703706E-3</v>
-      </c>
-      <c r="E3" s="12">
-        <v>6.7013888888888887E-3</v>
-      </c>
-      <c r="F3" s="12">
-        <v>8.2638888888888883E-3</v>
-      </c>
-      <c r="G3" s="12">
-        <v>1.0972222222222223E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2.488425925925926E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="B4" s="12">
-        <v>5.0925925925925921E-4</v>
+        <v>4.0509259259259258E-4</v>
       </c>
       <c r="C4" s="12">
-        <v>1.3310185185185185E-3</v>
-      </c>
-      <c r="D4" s="12">
-        <v>2.4189814814814816E-3</v>
-      </c>
-      <c r="E4" s="12">
-        <v>3.4027777777777784E-3</v>
-      </c>
-      <c r="F4" s="12">
-        <v>4.6643518518518518E-3</v>
-      </c>
-      <c r="G4" s="12">
-        <v>5.6018518518518518E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2.9166666666666668E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>343</v>
       </c>
@@ -20547,298 +21813,212 @@
         <v>5.2083333333333333E-4</v>
       </c>
       <c r="C5" s="12">
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1.7245370370370372E-3</v>
-      </c>
-      <c r="F5" s="12">
-        <v>2.1643518518518518E-3</v>
-      </c>
-      <c r="G5" s="12">
         <v>3.0555555555555557E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="B6" s="12">
-        <v>6.3657407407407402E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="C6" s="12">
-        <v>3.1481481481481482E-3</v>
-      </c>
-      <c r="D6" s="12">
-        <v>6.3657407407407404E-3</v>
-      </c>
-      <c r="E6" s="12">
-        <v>9.525462962962963E-3</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1.2638888888888889E-2</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.2708333333333339E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B7" s="12">
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="C7" s="12">
-        <v>2.0486111111111113E-3</v>
-      </c>
-      <c r="D7" s="12">
-        <v>3.1018518518518522E-3</v>
-      </c>
-      <c r="E7" s="12">
-        <v>4.9421296296296288E-3</v>
-      </c>
-      <c r="F7" s="12">
-        <v>6.8981481481481489E-3</v>
-      </c>
-      <c r="G7" s="12">
+        <v>4.3287037037037035E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="12">
+        <v>4.1666666666666669E-4</v>
+      </c>
+      <c r="C8" s="12">
+        <v>5.4745370370370373E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="12">
+        <v>5.0925925925925921E-4</v>
+      </c>
+      <c r="C9" s="12">
+        <v>5.6018518518518518E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="12">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="C10" s="12">
         <v>8.0092592592592594E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B8" s="12">
-        <v>6.2500000000000001E-4</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1.25E-3</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1.8634259259259261E-3</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F8" s="12">
-        <v>3.1134259259259257E-3</v>
-      </c>
-      <c r="G8" s="12">
-        <v>4.3287037037037035E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B9" s="12">
-        <v>6.2500000000000001E-4</v>
-      </c>
-      <c r="C9" s="12">
-        <v>6.2500000000000001E-4</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1.25E-3</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1.25E-3</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1.8750000000000001E-3</v>
-      </c>
-      <c r="G9" s="12">
-        <v>2.488425925925926E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>353</v>
-      </c>
-      <c r="B10" s="12">
-        <v>4.8611111111111104E-4</v>
-      </c>
-      <c r="C10" s="12">
-        <v>4.9652777777777777E-3</v>
-      </c>
-      <c r="D10" s="12">
-        <v>9.9652777777777778E-3</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1.4965277777777779E-2</v>
-      </c>
-      <c r="F10" s="12">
-        <v>2.0069444444444442E-2</v>
-      </c>
-      <c r="G10" s="12">
-        <v>2.5069444444444446E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>440</v>
       </c>
       <c r="B11" s="12">
+        <v>4.1666666666666669E-4</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1.0543981481481481E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" s="12">
+        <v>5.5555555555555556E-4</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1.0972222222222223E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="12">
         <v>5.0925925925925921E-4</v>
       </c>
-      <c r="C11" s="12">
-        <v>2.6041666666666665E-3</v>
-      </c>
-      <c r="D11" s="12">
-        <v>5.3009259259259251E-3</v>
-      </c>
-      <c r="E11" s="12">
-        <v>7.8472222222222224E-3</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1.0474537037037037E-2</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="C13" s="12">
         <v>1.3078703703703703E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>382</v>
-      </c>
-      <c r="B12" s="12">
-        <v>3.3564814814814812E-4</v>
-      </c>
-      <c r="C12" s="12">
-        <v>9.8379629629629642E-4</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1.6435185185185183E-3</v>
-      </c>
-      <c r="E12" s="12">
-        <v>2.4652777777777776E-3</v>
-      </c>
-      <c r="F12" s="12">
-        <v>3.2986111111111111E-3</v>
-      </c>
-      <c r="G12" s="12">
-        <v>4.2708333333333339E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B13" s="12">
-        <v>3.1250000000000001E-4</v>
-      </c>
-      <c r="C13" s="12">
-        <v>4.8611111111111104E-4</v>
-      </c>
-      <c r="D13" s="12">
-        <v>9.8379629629629642E-4</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1.2268518518518518E-3</v>
-      </c>
-      <c r="F13" s="12">
-        <v>1.6435185185185183E-3</v>
-      </c>
-      <c r="G13" s="12">
-        <v>2.2916666666666667E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B14" s="12">
-        <v>4.1666666666666669E-4</v>
+        <v>6.3657407407407402E-4</v>
       </c>
       <c r="C14" s="12">
-        <v>4.2476851851851851E-3</v>
-      </c>
-      <c r="D14" s="12">
-        <v>8.4606481481481494E-3</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1.269675925925926E-2</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1.7013888888888887E-2</v>
-      </c>
-      <c r="G14" s="12">
-        <v>2.1168981481481483E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>283</v>
       </c>
       <c r="B15" s="12">
         <v>4.1666666666666669E-4</v>
       </c>
       <c r="C15" s="12">
-        <v>2.0717592592592593E-3</v>
-      </c>
-      <c r="D15" s="12">
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="E15" s="12">
-        <v>6.168981481481481E-3</v>
-      </c>
-      <c r="F15" s="12">
-        <v>8.4722222222222213E-3</v>
-      </c>
-      <c r="G15" s="12">
-        <v>1.0543981481481481E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2.1168981481481483E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>220</v>
       </c>
       <c r="B16" s="12">
-        <v>4.1666666666666669E-4</v>
+        <v>4.8611111111111104E-4</v>
       </c>
       <c r="C16" s="12">
-        <v>1.2731481481481483E-3</v>
-      </c>
-      <c r="D16" s="12">
-        <v>2.1180555555555553E-3</v>
-      </c>
-      <c r="E16" s="12">
-        <v>3.1597222222222222E-3</v>
-      </c>
-      <c r="F16" s="12">
-        <v>4.1898148148148146E-3</v>
-      </c>
-      <c r="G16" s="12">
-        <v>5.4745370370370373E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2.5069444444444446E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B17" s="12">
-        <v>4.0509259259259258E-4</v>
+        <v>7.8703703703703705E-4</v>
       </c>
       <c r="C17" s="12">
-        <v>6.2500000000000001E-4</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1.2384259259259258E-3</v>
-      </c>
-      <c r="E17" s="12">
-        <v>1.5740740740740741E-3</v>
-      </c>
-      <c r="F17" s="12">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="G17" s="12">
-        <v>2.9166666666666668E-3</v>
-      </c>
+        <v>2.9942129629629628E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="19"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="12"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="12"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="12"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="12"/>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="12"/>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="12"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="12"/>
+      <c r="E54" s="12"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+    <sortCondition ref="D2:D17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20846,260 +22026,454 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0234D530-533E-DC44-851E-4B71429EF037}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1">
-        <v>20</v>
-      </c>
-      <c r="D1">
-        <v>40</v>
-      </c>
-      <c r="E1">
-        <v>60</v>
-      </c>
-      <c r="F1">
-        <v>80</v>
-      </c>
-      <c r="G1">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" s="12">
-        <v>1.261574074074074E-3</v>
+        <v>7.175925925925927E-4</v>
       </c>
       <c r="C2" s="12">
-        <v>1.2731481481481483E-3</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1.2962962962962963E-3</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1.3194444444444443E-3</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.3310185185185185E-3</v>
-      </c>
-      <c r="G2" s="12">
-        <v>1.3310185185185185E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.7546296296296304E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B3" s="12">
-        <v>8.1018518518518516E-4</v>
+        <v>7.0601851851851847E-4</v>
       </c>
       <c r="C3" s="12">
-        <v>8.6805555555555551E-4</v>
-      </c>
-      <c r="D3" s="12">
-        <v>9.0277777777777784E-4</v>
-      </c>
-      <c r="E3" s="12">
-        <v>9.0277777777777784E-4</v>
-      </c>
-      <c r="F3" s="12">
-        <v>9.0277777777777784E-4</v>
-      </c>
-      <c r="G3" s="12">
-        <v>9.0277777777777784E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.7546296296296304E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B4" s="12">
         <v>7.175925925925927E-4</v>
       </c>
       <c r="C4" s="12">
-        <v>7.407407407407407E-4</v>
-      </c>
-      <c r="D4" s="12">
-        <v>7.407407407407407E-4</v>
-      </c>
-      <c r="E4" s="12">
         <v>7.7546296296296304E-4</v>
       </c>
-      <c r="F4" s="12">
-        <v>7.5231481481481471E-4</v>
-      </c>
-      <c r="G4" s="12">
-        <v>7.7546296296296304E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="12">
+        <v>8.1018518518518516E-4</v>
+      </c>
+      <c r="C5" s="12">
+        <v>9.0277777777777784E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6" s="12">
+        <v>6.3657407407407402E-4</v>
+      </c>
+      <c r="C6" s="12">
+        <v>9.1435185185185185E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" s="12">
+        <v>6.5972222222222213E-4</v>
+      </c>
+      <c r="C7" s="12">
+        <v>9.9537037037037042E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" s="12">
+        <v>6.5972222222222213E-4</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1.2847222222222223E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1.261574074074074E-3</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1.3310185185185185E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1.423611111111111E-3</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1.9560185185185184E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="12">
+        <v>4.8611111111111104E-4</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C11" xr:uid="{0234D530-533E-DC44-851E-4B71429EF037}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C11">
+      <sortCondition ref="C2:C11"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8883E1BE-C283-004B-909D-A42FC765A1E9}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2">
+        <v>2.0533333333333328E-3</v>
+      </c>
+      <c r="C2">
+        <v>5.0399999999999993E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3">
+        <v>2E-3</v>
+      </c>
+      <c r="C3">
+        <v>5.0611111111111107E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4">
+        <v>4.0800000000000003E-3</v>
+      </c>
+      <c r="C4">
+        <v>5.2284444444444446E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C5">
+        <v>5.2555555555555557E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6">
+        <v>7.6805555555555559E-3</v>
+      </c>
+      <c r="C6">
+        <v>5.5300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7">
+        <v>8.1600000000000006E-3</v>
+      </c>
+      <c r="C7">
+        <v>5.6515555555555555E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8">
+        <v>1.6320000000000001E-2</v>
+      </c>
+      <c r="C8">
+        <v>6.4977777777777773E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="C9">
+        <v>7.112777777777779E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10">
+        <v>4.1066666666666665E-3</v>
+      </c>
+      <c r="C10">
+        <v>8.1106666666666674E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11">
+        <v>7.5288888888888879E-3</v>
+      </c>
+      <c r="C11">
+        <v>8.2817777777777782E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12">
+        <v>1.1381500000000001E-3</v>
+      </c>
+      <c r="C12">
+        <v>8.3290000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13">
+        <v>1.54E-2</v>
+      </c>
+      <c r="C13">
+        <v>9.0346666666666672E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14">
+        <v>7.217777777777777E-3</v>
+      </c>
+      <c r="C14">
+        <v>9.1840000000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15">
+        <v>1.3439999999999999E-2</v>
+      </c>
+      <c r="C15">
+        <v>9.8559999999999995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16">
+        <v>2.8408888888888885E-3</v>
+      </c>
+      <c r="C16">
+        <v>0.1080791111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B17">
+        <v>9.4089999999999994E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.12709000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="C18">
+        <v>0.14079000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19">
+        <v>5.7199999999999994E-3</v>
+      </c>
+      <c r="C19">
+        <v>0.14690000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20">
+        <v>1.8204999999999994E-3</v>
+      </c>
+      <c r="C20">
+        <v>0.17703999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21">
+        <v>1.7501999999999997E-3</v>
+      </c>
+      <c r="C21">
+        <v>0.17751999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22">
+        <v>1.5953999999999999E-3</v>
+      </c>
+      <c r="C22">
+        <v>0.18564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>351</v>
+      </c>
+      <c r="B23">
+        <v>2.0648000000000007E-3</v>
+      </c>
+      <c r="C23">
+        <v>0.19982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="12">
-        <v>7.0601851851851847E-4</v>
-      </c>
-      <c r="C5" s="12">
-        <v>7.407407407407407E-4</v>
-      </c>
-      <c r="D5" s="12">
-        <v>7.407407407407407E-4</v>
-      </c>
-      <c r="E5" s="12">
-        <v>7.5231481481481471E-4</v>
-      </c>
-      <c r="F5" s="12">
-        <v>7.5231481481481471E-4</v>
-      </c>
-      <c r="G5" s="12">
-        <v>7.7546296296296304E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B24">
+        <v>3.0001999999999997E-3</v>
+      </c>
+      <c r="C24">
+        <v>0.30002000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25">
+        <v>3.3063999999999993E-3</v>
+      </c>
+      <c r="C25">
+        <v>0.36543999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>350</v>
       </c>
-      <c r="B6" s="12">
-        <v>7.175925925925927E-4</v>
-      </c>
-      <c r="C6" s="12">
-        <v>7.6388888888888893E-4</v>
-      </c>
-      <c r="D6" s="12">
-        <v>7.6388888888888893E-4</v>
-      </c>
-      <c r="E6" s="12">
-        <v>7.7546296296296304E-4</v>
-      </c>
-      <c r="F6" s="12">
-        <v>7.6388888888888893E-4</v>
-      </c>
-      <c r="G6" s="12">
-        <v>7.7546296296296304E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B26">
+        <v>4.0688999999999986E-3</v>
+      </c>
+      <c r="C26">
+        <v>0.39354999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="12">
-        <v>4.8611111111111104E-4</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1.423611111111111E-3</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1.8981481481481482E-3</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2.1412037037037038E-3</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2.2106481481481478E-3</v>
-      </c>
-      <c r="F8" s="12">
-        <v>2.5462962962962961E-3</v>
-      </c>
-      <c r="G8" s="12">
-        <v>1.9560185185185184E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>359</v>
-      </c>
-      <c r="B9" s="12">
-        <v>6.5972222222222213E-4</v>
-      </c>
-      <c r="C9" s="12">
-        <v>9.3750000000000007E-4</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1.2731481481481483E-3</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1.2268518518518518E-3</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1.1805555555555556E-3</v>
-      </c>
-      <c r="G9" s="12">
-        <v>1.2847222222222223E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B10" s="12">
-        <v>6.3657407407407402E-4</v>
-      </c>
-      <c r="C10" s="12">
-        <v>9.1435185185185185E-4</v>
-      </c>
-      <c r="D10" s="12">
-        <v>9.8379629629629642E-4</v>
-      </c>
-      <c r="E10" s="12">
-        <v>8.7962962962962962E-4</v>
-      </c>
-      <c r="F10" s="12">
-        <v>9.8379629629629642E-4</v>
-      </c>
-      <c r="G10" s="12">
-        <v>9.1435185185185185E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B11" s="12">
-        <v>6.5972222222222213E-4</v>
-      </c>
-      <c r="C11" s="12">
-        <v>8.7962962962962962E-4</v>
-      </c>
-      <c r="D11" s="12">
-        <v>8.564814814814815E-4</v>
-      </c>
-      <c r="E11" s="12">
-        <v>9.8379629629629642E-4</v>
-      </c>
-      <c r="F11" s="12">
-        <v>8.9120370370370362E-4</v>
-      </c>
-      <c r="G11" s="12">
-        <v>9.9537037037037042E-4</v>
+      <c r="B27">
+        <v>1.3353437499999999E-5</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C27">
+    <sortCondition ref="C2:C27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22393,10 +23767,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C2327B-7A2B-A440-BC16-B5CE49D1A413}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G10"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22411,31 +23785,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="L1" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
+      <c r="A2" s="18"/>
       <c r="B2">
         <v>1</v>
       </c>
@@ -22454,7 +23828,7 @@
       <c r="G2">
         <v>100</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="18"/>
       <c r="M2">
         <v>1</v>
       </c>
@@ -23401,27 +24775,27 @@
         <v>358</v>
       </c>
       <c r="M21" s="13">
-        <f>B21*86400</f>
+        <f t="shared" ref="M21:M28" si="8">B21*86400</f>
         <v>36</v>
       </c>
       <c r="N21" s="13">
-        <f t="shared" ref="N21:N28" si="8">C21*86400</f>
+        <f t="shared" ref="N21:N28" si="9">C21*86400</f>
         <v>367</v>
       </c>
       <c r="O21" s="13">
-        <f t="shared" ref="O21:O28" si="9">D21*86400</f>
+        <f t="shared" ref="O21:O28" si="10">D21*86400</f>
         <v>731.00000000000011</v>
       </c>
       <c r="P21" s="13">
-        <f t="shared" ref="P21:P28" si="10">E21*86400</f>
+        <f t="shared" ref="P21:P28" si="11">E21*86400</f>
         <v>1097</v>
       </c>
       <c r="Q21" s="13">
-        <f t="shared" ref="Q21:Q28" si="11">F21*86400</f>
+        <f t="shared" ref="Q21:Q28" si="12">F21*86400</f>
         <v>1469.9999999999998</v>
       </c>
       <c r="R21" s="13">
-        <f t="shared" ref="R21:R28" si="12">G21*86400</f>
+        <f t="shared" ref="R21:R28" si="13">G21*86400</f>
         <v>1829.0000000000002</v>
       </c>
     </row>
@@ -23451,27 +24825,27 @@
         <v>357</v>
       </c>
       <c r="M22" s="13">
-        <f>B22*86400</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="N22" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>179</v>
       </c>
       <c r="O22" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>360</v>
       </c>
       <c r="P22" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>533</v>
       </c>
       <c r="Q22" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>731.99999999999989</v>
       </c>
       <c r="R22" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>910.99999999999989</v>
       </c>
     </row>
@@ -23501,27 +24875,27 @@
         <v>355</v>
       </c>
       <c r="M23" s="13">
-        <f>B23*86400</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="N23" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>110.00000000000001</v>
       </c>
       <c r="O23" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>182.99999999999997</v>
       </c>
       <c r="P23" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>273</v>
       </c>
       <c r="Q23" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>362</v>
       </c>
       <c r="R23" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>473</v>
       </c>
     </row>
@@ -23551,27 +24925,27 @@
         <v>356</v>
       </c>
       <c r="M24" s="13">
-        <f>B24*86400</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="N24" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="O24" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>106.99999999999999</v>
       </c>
       <c r="P24" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>136</v>
       </c>
       <c r="Q24" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="R24" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>252</v>
       </c>
     </row>
@@ -23601,27 +24975,27 @@
         <v>362</v>
       </c>
       <c r="M25" s="13">
-        <f>B25*86400</f>
+        <f t="shared" si="8"/>
         <v>122.99999999999999</v>
       </c>
       <c r="N25" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>164</v>
       </c>
       <c r="O25" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>185</v>
       </c>
       <c r="P25" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>190.99999999999997</v>
       </c>
       <c r="Q25" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>219.99999999999997</v>
       </c>
       <c r="R25" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>169</v>
       </c>
     </row>
@@ -23651,27 +25025,27 @@
         <v>359</v>
       </c>
       <c r="M26" s="13">
-        <f>B26*86400</f>
+        <f t="shared" si="8"/>
         <v>56.999999999999993</v>
       </c>
       <c r="N26" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="O26" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>110.00000000000001</v>
       </c>
       <c r="P26" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>106</v>
       </c>
       <c r="Q26" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>102</v>
       </c>
       <c r="R26" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>111</v>
       </c>
     </row>
@@ -23701,27 +25075,27 @@
         <v>361</v>
       </c>
       <c r="M27" s="13">
-        <f>B27*86400</f>
+        <f t="shared" si="8"/>
         <v>54.999999999999993</v>
       </c>
       <c r="N27" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="O27" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85.000000000000014</v>
       </c>
       <c r="P27" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="Q27" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>85.000000000000014</v>
       </c>
       <c r="R27" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>79</v>
       </c>
     </row>
@@ -23751,31 +25125,175 @@
         <v>360</v>
       </c>
       <c r="M28" s="13">
-        <f>B28*86400</f>
+        <f t="shared" si="8"/>
         <v>56.999999999999993</v>
       </c>
       <c r="N28" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="O28" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="P28" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>85.000000000000014</v>
       </c>
       <c r="Q28" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>77</v>
       </c>
       <c r="R28" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>86</v>
       </c>
     </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:G57">
+    <sortCondition ref="G42:G57"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:G1"/>
@@ -23790,7 +25308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE06734-8FBD-9C4C-9AE6-A4EF3A217B5D}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -23935,7 +25453,7 @@
         <v>825</v>
       </c>
       <c r="I6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -24543,10 +26061,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB945ED4-EF65-254A-9AA6-BAD175EF393D}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G28"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25321,6 +26839,617 @@
         <v>0.36543999999999999</v>
       </c>
     </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>363</v>
+      </c>
+      <c r="B37" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+      <c r="F38">
+        <v>80</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39">
+        <v>2.8408888888888885E-3</v>
+      </c>
+      <c r="C39">
+        <v>2.139022222222222E-2</v>
+      </c>
+      <c r="D39">
+        <v>4.3699555555555554E-2</v>
+      </c>
+      <c r="E39">
+        <v>6.5423999999999996E-2</v>
+      </c>
+      <c r="F39">
+        <v>8.5268444444444452E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.1080791111111111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40">
+        <v>4.1066666666666665E-3</v>
+      </c>
+      <c r="C40">
+        <v>1.6084444444444443E-2</v>
+      </c>
+      <c r="D40">
+        <v>3.0457777777777778E-2</v>
+      </c>
+      <c r="E40">
+        <v>4.9536666666666666E-2</v>
+      </c>
+      <c r="F40">
+        <v>6.1086666666666664E-2</v>
+      </c>
+      <c r="G40">
+        <v>8.1106666666666674E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>342</v>
+      </c>
+      <c r="B41">
+        <v>7.5288888888888879E-3</v>
+      </c>
+      <c r="C41">
+        <v>1.9677777777777777E-2</v>
+      </c>
+      <c r="D41">
+        <v>3.5762222222222223E-2</v>
+      </c>
+      <c r="E41">
+        <v>5.0306666666666673E-2</v>
+      </c>
+      <c r="F41">
+        <v>6.8957777777777785E-2</v>
+      </c>
+      <c r="G41">
+        <v>8.2817777777777782E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>343</v>
+      </c>
+      <c r="B42">
+        <v>1.54E-2</v>
+      </c>
+      <c r="C42">
+        <v>2.0533333333333334E-2</v>
+      </c>
+      <c r="D42">
+        <v>4.1066666666666668E-2</v>
+      </c>
+      <c r="E42">
+        <v>5.0991111111111119E-2</v>
+      </c>
+      <c r="F42">
+        <v>6.3995555555555556E-2</v>
+      </c>
+      <c r="G42">
+        <v>9.0346666666666672E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>348</v>
+      </c>
+      <c r="B43">
+        <v>2.0533333333333328E-3</v>
+      </c>
+      <c r="C43">
+        <v>1.0154666666666666E-2</v>
+      </c>
+      <c r="D43">
+        <v>2.0533333333333331E-2</v>
+      </c>
+      <c r="E43">
+        <v>3.072533333333333E-2</v>
+      </c>
+      <c r="F43">
+        <v>4.0767999999999999E-2</v>
+      </c>
+      <c r="G43">
+        <v>5.0399999999999993E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>344</v>
+      </c>
+      <c r="B44">
+        <v>4.0800000000000003E-3</v>
+      </c>
+      <c r="C44">
+        <v>1.3373333333333336E-2</v>
+      </c>
+      <c r="D44">
+        <v>2.0248888888888889E-2</v>
+      </c>
+      <c r="E44">
+        <v>3.226222222222222E-2</v>
+      </c>
+      <c r="F44">
+        <v>4.5031111111111119E-2</v>
+      </c>
+      <c r="G44">
+        <v>5.2284444444444446E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>345</v>
+      </c>
+      <c r="B45">
+        <v>8.1600000000000006E-3</v>
+      </c>
+      <c r="C45">
+        <v>1.6320000000000001E-2</v>
+      </c>
+      <c r="D45">
+        <v>2.4328888888888893E-2</v>
+      </c>
+      <c r="E45">
+        <v>3.2640000000000002E-2</v>
+      </c>
+      <c r="F45">
+        <v>4.0648888888888887E-2</v>
+      </c>
+      <c r="G45">
+        <v>5.6515555555555555E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46">
+        <v>1.6320000000000001E-2</v>
+      </c>
+      <c r="C46">
+        <v>1.6320000000000001E-2</v>
+      </c>
+      <c r="D46">
+        <v>3.2640000000000002E-2</v>
+      </c>
+      <c r="E46">
+        <v>3.2640000000000002E-2</v>
+      </c>
+      <c r="F46">
+        <v>4.8960000000000004E-2</v>
+      </c>
+      <c r="G46">
+        <v>6.4977777777777773E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>352</v>
+      </c>
+      <c r="B47">
+        <v>1.8204999999999994E-3</v>
+      </c>
+      <c r="C47">
+        <v>3.5073999999999987E-2</v>
+      </c>
+      <c r="D47">
+        <v>7.0815999999999976E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.10622399999999997</v>
+      </c>
+      <c r="F47">
+        <v>0.14296799999999993</v>
+      </c>
+      <c r="G47">
+        <v>0.17703999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>340</v>
+      </c>
+      <c r="B48">
+        <v>1.7501999999999997E-3</v>
+      </c>
+      <c r="C48">
+        <v>3.4503999999999993E-2</v>
+      </c>
+      <c r="D48">
+        <v>7.1007999999999974E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.10651199999999997</v>
+      </c>
+      <c r="F48">
+        <v>0.14201599999999995</v>
+      </c>
+      <c r="G48">
+        <v>0.17751999999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>351</v>
+      </c>
+      <c r="B49">
+        <v>2.0648000000000007E-3</v>
+      </c>
+      <c r="C49">
+        <v>4.0629999999999993E-2</v>
+      </c>
+      <c r="D49">
+        <v>7.9927999999999999E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.11989200000000001</v>
+      </c>
+      <c r="F49">
+        <v>0.159856</v>
+      </c>
+      <c r="G49">
+        <v>0.19982</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50">
+        <v>3.0001999999999997E-3</v>
+      </c>
+      <c r="C50">
+        <v>6.0003999999999995E-2</v>
+      </c>
+      <c r="D50">
+        <v>0.12000799999999999</v>
+      </c>
+      <c r="E50">
+        <v>0.18301199999999998</v>
+      </c>
+      <c r="F50">
+        <v>0.24001599999999998</v>
+      </c>
+      <c r="G50">
+        <v>0.30002000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>350</v>
+      </c>
+      <c r="B51">
+        <v>4.0688999999999986E-3</v>
+      </c>
+      <c r="C51">
+        <v>8.1377999999999978E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.15475199999999997</v>
+      </c>
+      <c r="E51">
+        <v>0.23212799999999997</v>
+      </c>
+      <c r="F51">
+        <v>0.30950399999999995</v>
+      </c>
+      <c r="G51">
+        <v>0.39354999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52">
+        <v>1.3353437499999999E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>353</v>
+      </c>
+      <c r="B53">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="C53">
+        <v>2.7885000000000004E-2</v>
+      </c>
+      <c r="D53">
+        <v>5.5965000000000008E-2</v>
+      </c>
+      <c r="E53">
+        <v>8.4045000000000009E-2</v>
+      </c>
+      <c r="F53">
+        <v>0.11271</v>
+      </c>
+      <c r="G53">
+        <v>0.14079000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>354</v>
+      </c>
+      <c r="B54">
+        <v>5.7199999999999994E-3</v>
+      </c>
+      <c r="C54">
+        <v>2.9250000000000005E-2</v>
+      </c>
+      <c r="D54">
+        <v>5.9540000000000003E-2</v>
+      </c>
+      <c r="E54">
+        <v>8.814000000000001E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.11765000000000002</v>
+      </c>
+      <c r="G54">
+        <v>0.14690000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>382</v>
+      </c>
+      <c r="B55">
+        <v>7.217777777777777E-3</v>
+      </c>
+      <c r="C55">
+        <v>2.1155555555555559E-2</v>
+      </c>
+      <c r="D55">
+        <v>3.5342222222222212E-2</v>
+      </c>
+      <c r="E55">
+        <v>5.3013333333333322E-2</v>
+      </c>
+      <c r="F55">
+        <v>7.0933333333333334E-2</v>
+      </c>
+      <c r="G55">
+        <v>9.1840000000000005E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>393</v>
+      </c>
+      <c r="B56">
+        <v>1.3439999999999999E-2</v>
+      </c>
+      <c r="C56">
+        <v>2.0906666666666664E-2</v>
+      </c>
+      <c r="D56">
+        <v>4.2311111111111119E-2</v>
+      </c>
+      <c r="E56">
+        <v>5.276444444444444E-2</v>
+      </c>
+      <c r="F56">
+        <v>7.0684444444444425E-2</v>
+      </c>
+      <c r="G56">
+        <v>9.8559999999999995E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>358</v>
+      </c>
+      <c r="B57">
+        <v>1.4E-3</v>
+      </c>
+      <c r="C57">
+        <v>1.4272222222222223E-2</v>
+      </c>
+      <c r="D57">
+        <v>2.8427777777777784E-2</v>
+      </c>
+      <c r="E57">
+        <v>4.2661111111111115E-2</v>
+      </c>
+      <c r="F57">
+        <v>5.7166666666666657E-2</v>
+      </c>
+      <c r="G57">
+        <v>7.112777777777779E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>357</v>
+      </c>
+      <c r="B58">
+        <v>2E-3</v>
+      </c>
+      <c r="C58">
+        <v>9.944444444444445E-3</v>
+      </c>
+      <c r="D58">
+        <v>0.02</v>
+      </c>
+      <c r="E58">
+        <v>2.9611111111111112E-2</v>
+      </c>
+      <c r="F58">
+        <v>4.0666666666666663E-2</v>
+      </c>
+      <c r="G58">
+        <v>5.0611111111111107E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>355</v>
+      </c>
+      <c r="B59">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C59">
+        <v>1.2222222222222225E-2</v>
+      </c>
+      <c r="D59">
+        <v>2.0333333333333332E-2</v>
+      </c>
+      <c r="E59">
+        <v>3.0333333333333334E-2</v>
+      </c>
+      <c r="F59">
+        <v>4.0222222222222222E-2</v>
+      </c>
+      <c r="G59">
+        <v>5.2555555555555557E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>356</v>
+      </c>
+      <c r="B60">
+        <v>7.6805555555555559E-3</v>
+      </c>
+      <c r="C60">
+        <v>1.1849999999999999E-2</v>
+      </c>
+      <c r="D60">
+        <v>2.3480555555555553E-2</v>
+      </c>
+      <c r="E60">
+        <v>2.9844444444444444E-2</v>
+      </c>
+      <c r="F60">
+        <v>3.95E-2</v>
+      </c>
+      <c r="G60">
+        <v>5.5300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>362</v>
+      </c>
+      <c r="B61">
+        <v>1.1381500000000001E-3</v>
+      </c>
+      <c r="C61">
+        <v>1.5918000000000002E-2</v>
+      </c>
+      <c r="D61">
+        <v>4.0346000000000007E-2</v>
+      </c>
+      <c r="E61">
+        <v>7.3839000000000002E-2</v>
+      </c>
+      <c r="F61">
+        <v>8.1432000000000032E-2</v>
+      </c>
+      <c r="G61">
+        <v>8.3290000000000003E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>359</v>
+      </c>
+      <c r="B62">
+        <v>9.4089999999999994E-4</v>
+      </c>
+      <c r="C62">
+        <v>2.1128000000000001E-2</v>
+      </c>
+      <c r="D62">
+        <v>5.8096000000000016E-2</v>
+      </c>
+      <c r="E62">
+        <v>7.7244000000000007E-2</v>
+      </c>
+      <c r="F62">
+        <v>0.10299200000000001</v>
+      </c>
+      <c r="G62">
+        <v>0.12709000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>361</v>
+      </c>
+      <c r="B63">
+        <v>1.5953999999999999E-3</v>
+      </c>
+      <c r="C63">
+        <v>3.8868E-2</v>
+      </c>
+      <c r="D63">
+        <v>7.3096000000000008E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.111384</v>
+      </c>
+      <c r="F63">
+        <v>0.155472</v>
+      </c>
+      <c r="G63">
+        <v>0.18564</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>360</v>
+      </c>
+      <c r="B64">
+        <v>3.3063999999999993E-3</v>
+      </c>
+      <c r="C64">
+        <v>7.0767999999999984E-2</v>
+      </c>
+      <c r="D64">
+        <v>0.14385600000000001</v>
+      </c>
+      <c r="E64">
+        <v>0.222744</v>
+      </c>
+      <c r="F64">
+        <v>0.28771200000000002</v>
+      </c>
+      <c r="G64">
+        <v>0.36543999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25330,8 +27459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AFD936-B353-5046-92B1-69D3F0B17B56}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25368,118 +27497,118 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B2" s="6">
-        <v>5.5555555555555556E-4</v>
+        <v>7.175925925925927E-4</v>
       </c>
       <c r="C2" s="6">
-        <v>2.1759259259259258E-3</v>
+        <v>7.407407407407407E-4</v>
       </c>
       <c r="D2" s="6">
-        <v>4.1203703703703706E-3</v>
+        <v>7.407407407407407E-4</v>
       </c>
       <c r="E2" s="6">
-        <v>6.7013888888888887E-3</v>
+        <v>7.7546296296296304E-4</v>
       </c>
       <c r="F2" s="6">
-        <v>8.2638888888888883E-3</v>
+        <v>7.5231481481481471E-4</v>
       </c>
       <c r="G2" s="6">
-        <v>1.0972222222222223E-2</v>
+        <v>7.7546296296296304E-4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B3" s="6">
-        <v>5.0925925925925921E-4</v>
+        <v>7.0601851851851847E-4</v>
       </c>
       <c r="C3" s="6">
-        <v>1.3310185185185185E-3</v>
+        <v>7.407407407407407E-4</v>
       </c>
       <c r="D3" s="6">
-        <v>2.4189814814814816E-3</v>
+        <v>7.407407407407407E-4</v>
       </c>
       <c r="E3" s="6">
-        <v>3.4027777777777784E-3</v>
+        <v>7.5231481481481471E-4</v>
       </c>
       <c r="F3" s="6">
-        <v>4.6643518518518518E-3</v>
+        <v>7.5231481481481471E-4</v>
       </c>
       <c r="G3" s="6">
-        <v>5.6018518518518518E-3</v>
-      </c>
-      <c r="I3" s="6"/>
+        <v>7.7546296296296304E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B4" s="6">
-        <v>5.2083333333333333E-4</v>
+        <v>7.175925925925927E-4</v>
       </c>
       <c r="C4" s="6">
-        <v>6.9444444444444447E-4</v>
+        <v>7.6388888888888893E-4</v>
       </c>
       <c r="D4" s="6">
-        <v>1.3888888888888889E-3</v>
+        <v>7.6388888888888893E-4</v>
       </c>
       <c r="E4" s="6">
-        <v>1.7245370370370372E-3</v>
+        <v>7.7546296296296304E-4</v>
       </c>
       <c r="F4" s="6">
-        <v>2.1643518518518518E-3</v>
+        <v>7.6388888888888893E-4</v>
       </c>
       <c r="G4" s="6">
-        <v>3.0555555555555557E-3</v>
+        <v>7.7546296296296304E-4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B5" s="6">
-        <v>6.2500000000000001E-4</v>
+        <v>8.1018518518518516E-4</v>
       </c>
       <c r="C5" s="6">
-        <v>2.0486111111111113E-3</v>
+        <v>8.6805555555555551E-4</v>
       </c>
       <c r="D5" s="6">
-        <v>3.1018518518518522E-3</v>
+        <v>9.0277777777777784E-4</v>
       </c>
       <c r="E5" s="6">
-        <v>4.9421296296296288E-3</v>
+        <v>9.0277777777777784E-4</v>
       </c>
       <c r="F5" s="6">
-        <v>6.8981481481481489E-3</v>
+        <v>9.0277777777777784E-4</v>
       </c>
       <c r="G5" s="6">
-        <v>8.0092592592592594E-3</v>
-      </c>
+        <v>9.0277777777777784E-4</v>
+      </c>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B6" s="6">
-        <v>6.2500000000000001E-4</v>
+        <v>1.261574074074074E-3</v>
       </c>
       <c r="C6" s="6">
-        <v>1.25E-3</v>
+        <v>1.2731481481481483E-3</v>
       </c>
       <c r="D6" s="6">
-        <v>1.8634259259259261E-3</v>
+        <v>1.2962962962962963E-3</v>
       </c>
       <c r="E6" s="6">
-        <v>2.5000000000000001E-3</v>
+        <v>1.3194444444444443E-3</v>
       </c>
       <c r="F6" s="6">
-        <v>3.1134259259259257E-3</v>
+        <v>1.3310185185185185E-3</v>
       </c>
       <c r="G6" s="6">
-        <v>4.3287037037037035E-3</v>
+        <v>1.3310185185185185E-3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -25507,163 +27636,163 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B8" s="6">
-        <v>1.261574074074074E-3</v>
+        <v>5.2083333333333333E-4</v>
       </c>
       <c r="C8" s="6">
-        <v>1.2731481481481483E-3</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="D8" s="6">
-        <v>1.2962962962962963E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="E8" s="6">
-        <v>1.3194444444444443E-3</v>
+        <v>1.7245370370370372E-3</v>
       </c>
       <c r="F8" s="6">
-        <v>1.3310185185185185E-3</v>
+        <v>2.1643518518518518E-3</v>
       </c>
       <c r="G8" s="6">
-        <v>1.3310185185185185E-3</v>
+        <v>3.0555555555555557E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B9" s="6">
-        <v>7.175925925925927E-4</v>
+        <v>6.2500000000000001E-4</v>
       </c>
       <c r="C9" s="6">
-        <v>7.407407407407407E-4</v>
+        <v>1.25E-3</v>
       </c>
       <c r="D9" s="6">
-        <v>7.407407407407407E-4</v>
+        <v>1.8634259259259261E-3</v>
       </c>
       <c r="E9" s="6">
-        <v>7.7546296296296304E-4</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F9" s="6">
-        <v>7.5231481481481471E-4</v>
+        <v>3.1134259259259257E-3</v>
       </c>
       <c r="G9" s="6">
-        <v>7.7546296296296304E-4</v>
+        <v>4.3287037037037035E-3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B10" s="6">
-        <v>7.0601851851851847E-4</v>
+        <v>5.0925925925925921E-4</v>
       </c>
       <c r="C10" s="6">
-        <v>7.407407407407407E-4</v>
+        <v>1.3310185185185185E-3</v>
       </c>
       <c r="D10" s="6">
-        <v>7.407407407407407E-4</v>
+        <v>2.4189814814814816E-3</v>
       </c>
       <c r="E10" s="6">
-        <v>7.5231481481481471E-4</v>
+        <v>3.4027777777777784E-3</v>
       </c>
       <c r="F10" s="6">
-        <v>7.5231481481481471E-4</v>
+        <v>4.6643518518518518E-3</v>
       </c>
       <c r="G10" s="6">
-        <v>7.7546296296296304E-4</v>
+        <v>5.6018518518518518E-3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B11" s="6">
-        <v>7.175925925925927E-4</v>
+        <v>6.2500000000000001E-4</v>
       </c>
       <c r="C11" s="6">
-        <v>7.6388888888888893E-4</v>
+        <v>2.0486111111111113E-3</v>
       </c>
       <c r="D11" s="6">
-        <v>7.6388888888888893E-4</v>
+        <v>3.1018518518518522E-3</v>
       </c>
       <c r="E11" s="6">
-        <v>7.7546296296296304E-4</v>
+        <v>4.9421296296296288E-3</v>
       </c>
       <c r="F11" s="6">
-        <v>7.6388888888888893E-4</v>
+        <v>6.8981481481481489E-3</v>
       </c>
       <c r="G11" s="6">
-        <v>7.7546296296296304E-4</v>
+        <v>8.0092592592592594E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B12" s="6">
-        <v>8.1018518518518516E-4</v>
+        <v>5.5555555555555556E-4</v>
       </c>
       <c r="C12" s="6">
-        <v>8.6805555555555551E-4</v>
+        <v>2.1759259259259258E-3</v>
       </c>
       <c r="D12" s="6">
-        <v>9.0277777777777784E-4</v>
+        <v>4.1203703703703706E-3</v>
       </c>
       <c r="E12" s="6">
-        <v>9.0277777777777784E-4</v>
+        <v>6.7013888888888887E-3</v>
       </c>
       <c r="F12" s="6">
-        <v>9.0277777777777784E-4</v>
+        <v>8.2638888888888883E-3</v>
       </c>
       <c r="G12" s="6">
-        <v>9.0277777777777784E-4</v>
+        <v>1.0972222222222223E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B13" s="6">
-        <v>7.8703703703703705E-4</v>
+        <v>6.3657407407407402E-4</v>
       </c>
       <c r="C13" s="6">
-        <v>5.9259259259259256E-3</v>
+        <v>3.1481481481481482E-3</v>
       </c>
       <c r="D13" s="6">
-        <v>1.2106481481481482E-2</v>
+        <v>6.3657407407407404E-3</v>
       </c>
       <c r="E13" s="6">
-        <v>1.8124999999999999E-2</v>
+        <v>9.525462962962963E-3</v>
       </c>
       <c r="F13" s="6">
-        <v>2.3622685185185188E-2</v>
+        <v>1.2638888888888889E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>2.9942129629629628E-2</v>
+        <v>1.5625E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B14" s="6">
-        <v>6.3657407407407402E-4</v>
+        <v>7.8703703703703705E-4</v>
       </c>
       <c r="C14" s="6">
-        <v>3.1481481481481482E-3</v>
+        <v>5.9259259259259256E-3</v>
       </c>
       <c r="D14" s="6">
-        <v>6.3657407407407404E-3</v>
+        <v>1.2106481481481482E-2</v>
       </c>
       <c r="E14" s="6">
-        <v>9.525462962962963E-3</v>
+        <v>1.8124999999999999E-2</v>
       </c>
       <c r="F14" s="6">
-        <v>1.2638888888888889E-2</v>
+        <v>2.3622685185185188E-2</v>
       </c>
       <c r="G14" s="6">
-        <v>1.5625E-2</v>
+        <v>2.9942129629629628E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -25756,6 +27885,9 @@
       <c r="G25" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+    <sortCondition ref="G2:G14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -25765,13 +27897,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE90CB74-2FCE-0A4F-95CB-E7E5798FB22A}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
@@ -25893,7 +28025,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B5" s="12">
         <v>3.3564814814814812E-4</v>
@@ -25916,7 +28048,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B6" s="12">
         <v>3.1250000000000001E-4</v>
@@ -25947,8 +28079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84073B95-21D8-6D49-BB68-C7DAE90ED40C}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="G9" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25982,7 +28114,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>355</v>
+        <v>244</v>
       </c>
       <c r="B2" s="6">
         <v>4.1666666666666669E-4</v>
@@ -26005,7 +28137,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="B3" s="6">
         <v>4.0509259259259258E-4</v>
@@ -26028,7 +28160,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>439</v>
+        <v>270</v>
       </c>
       <c r="B4" s="6">
         <v>4.1666666666666669E-4</v>
@@ -26051,7 +28183,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>440</v>
+        <v>283</v>
       </c>
       <c r="B5" s="6">
         <v>4.1666666666666669E-4</v>
